--- a/src/ACAT/grades/FA24/COMP-101_FA24_01_course_data.xlsx
+++ b/src/ACAT/grades/FA24/COMP-101_FA24_01_course_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jglossner\GitRivier\Assessment\src\ACAT\grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jglossner\GitRivier\Assessment\src\ACAT\grades\FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9DA7CA-CBB5-4FF0-A1C1-0DF611F88428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E212853-CC40-4BDF-BAF2-B8F61DF27AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1650" windowWidth="21600" windowHeight="11025" xr2:uid="{3833C598-C2F8-49E4-AD33-D16D6B8DFCA6}"/>
+    <workbookView xWindow="525" yWindow="4335" windowWidth="21600" windowHeight="11025" xr2:uid="{3833C598-C2F8-49E4-AD33-D16D6B8DFCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="COMP-101_FA24_01_course_data" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>SIS User ID</t>
   </si>
   <si>
-    <t>SIS Login ID</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>(read only)</t>
   </si>
   <si>
-    <t>mcampbell2</t>
-  </si>
-  <si>
     <t>FA24 - COMP-101-A - CODING ADVENTURES I</t>
   </si>
   <si>
@@ -229,25 +223,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>adias</t>
-  </si>
-  <si>
-    <t>dguimond</t>
-  </si>
-  <si>
-    <t>ejacob</t>
-  </si>
-  <si>
-    <t>aolmos</t>
-  </si>
-  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>zsilva</t>
-  </si>
-  <si>
-    <t>62b5729e22a3ca75e907c8eeda46fb2383b0bb07</t>
   </si>
   <si>
     <t>F</t>
@@ -1111,15 +1087,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BA2EC5-7C9D-4E3C-952F-7434FAB7E38F}">
-  <dimension ref="A1:BK10"/>
+  <dimension ref="A1:BJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1306,269 +1282,266 @@
       <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
         <v>62</v>
       </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="AC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" t="s">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>25</v>
+      </c>
+      <c r="AD3">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>5</v>
-      </c>
-      <c r="AC3">
-        <v>10</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62705</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
         <v>2.89</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
       </c>
       <c r="AB4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AC4">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AD4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE4">
-        <v>12</v>
+        <v>98.8</v>
       </c>
       <c r="AF4">
         <v>98.8</v>
       </c>
       <c r="AG4">
-        <v>98.8</v>
+        <v>24.7</v>
       </c>
       <c r="AH4">
         <v>24.7</v>
       </c>
       <c r="AI4">
-        <v>24.7</v>
+        <v>50</v>
       </c>
       <c r="AJ4">
         <v>50</v>
       </c>
       <c r="AK4">
-        <v>50</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AL4">
         <v>16.670000000000002</v>
       </c>
       <c r="AM4">
-        <v>16.670000000000002</v>
+        <v>100</v>
       </c>
       <c r="AN4">
         <v>100</v>
@@ -1580,7 +1553,7 @@
         <v>100</v>
       </c>
       <c r="AQ4">
-        <v>100</v>
+        <v>102.86</v>
       </c>
       <c r="AR4">
         <v>102.86</v>
@@ -1592,7 +1565,7 @@
         <v>102.86</v>
       </c>
       <c r="AU4">
-        <v>102.86</v>
+        <v>100</v>
       </c>
       <c r="AV4">
         <v>100</v>
@@ -1603,79 +1576,76 @@
       <c r="AX4">
         <v>100</v>
       </c>
-      <c r="AY4">
-        <v>100</v>
+      <c r="BC4">
+        <v>94.57</v>
       </c>
       <c r="BD4">
         <v>94.57</v>
       </c>
       <c r="BE4">
-        <v>94.57</v>
+        <v>63.89</v>
       </c>
       <c r="BF4">
         <v>63.89</v>
       </c>
-      <c r="BG4">
-        <v>63.89</v>
+      <c r="BG4" t="s">
+        <v>65</v>
       </c>
       <c r="BH4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BI4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BJ4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62523</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="E5">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G5">
         <v>2.98</v>
       </c>
       <c r="H5">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="I5">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="J5">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="K5">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="L5">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="M5">
-        <v>2.89</v>
+        <v>0.18</v>
       </c>
       <c r="N5">
-        <v>0.18</v>
+        <v>2.87</v>
       </c>
       <c r="O5">
-        <v>2.87</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1711,19 +1681,19 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AD5">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>90.59</v>
       </c>
       <c r="AF5">
         <v>90.59</v>
@@ -1735,7 +1705,7 @@
         <v>90.59</v>
       </c>
       <c r="AI5">
-        <v>90.59</v>
+        <v>100</v>
       </c>
       <c r="AJ5">
         <v>100</v>
@@ -1782,8 +1752,8 @@
       <c r="AX5">
         <v>100</v>
       </c>
-      <c r="AY5">
-        <v>100</v>
+      <c r="BC5">
+        <v>96.61</v>
       </c>
       <c r="BD5">
         <v>96.61</v>
@@ -1794,31 +1764,28 @@
       <c r="BF5">
         <v>96.61</v>
       </c>
-      <c r="BG5">
-        <v>96.61</v>
+      <c r="BG5" t="s">
+        <v>65</v>
       </c>
       <c r="BH5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BI5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BJ5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>62159</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1842,16 +1809,16 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="L6">
-        <v>2.97</v>
-      </c>
-      <c r="M6">
         <v>2.71</v>
       </c>
+      <c r="N6">
+        <v>2.87</v>
+      </c>
       <c r="O6">
-        <v>2.87</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1887,31 +1854,31 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AD6">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE6">
-        <v>12</v>
+        <v>98.62</v>
       </c>
       <c r="AF6">
         <v>98.62</v>
       </c>
       <c r="AG6">
-        <v>98.62</v>
+        <v>90.4</v>
       </c>
       <c r="AH6">
         <v>90.4</v>
       </c>
       <c r="AI6">
-        <v>90.4</v>
+        <v>100</v>
       </c>
       <c r="AJ6">
         <v>100</v>
@@ -1958,43 +1925,40 @@
       <c r="AX6">
         <v>100</v>
       </c>
-      <c r="AY6">
-        <v>100</v>
+      <c r="BC6">
+        <v>99.5</v>
       </c>
       <c r="BD6">
         <v>99.5</v>
       </c>
       <c r="BE6">
-        <v>99.5</v>
+        <v>96.55</v>
       </c>
       <c r="BF6">
         <v>96.55</v>
       </c>
-      <c r="BG6">
-        <v>96.55</v>
+      <c r="BG6" t="s">
+        <v>65</v>
       </c>
       <c r="BH6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BI6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BJ6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8756</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2006,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="H7">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -2018,19 +1982,19 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="L7">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="M7">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="O7">
-        <v>2.73</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -2066,19 +2030,19 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AD7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE7">
-        <v>12</v>
+        <v>98.16</v>
       </c>
       <c r="AF7">
         <v>98.16</v>
@@ -2090,7 +2054,7 @@
         <v>98.16</v>
       </c>
       <c r="AI7">
-        <v>98.16</v>
+        <v>100</v>
       </c>
       <c r="AJ7">
         <v>100</v>
@@ -2137,8 +2101,8 @@
       <c r="AX7">
         <v>100</v>
       </c>
-      <c r="AY7">
-        <v>100</v>
+      <c r="BC7">
+        <v>99.34</v>
       </c>
       <c r="BD7">
         <v>99.34</v>
@@ -2149,67 +2113,64 @@
       <c r="BF7">
         <v>99.34</v>
       </c>
-      <c r="BG7">
-        <v>99.34</v>
+      <c r="BG7" t="s">
+        <v>65</v>
       </c>
       <c r="BH7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BI7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BJ7" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>63439</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="F8">
-        <v>2.95</v>
+        <v>2.68</v>
       </c>
       <c r="G8">
-        <v>2.68</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H8">
-        <v>2.4300000000000002</v>
+        <v>2.56</v>
       </c>
       <c r="I8">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="J8">
-        <v>2.41</v>
+        <v>2.64</v>
       </c>
       <c r="K8">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="L8">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="M8">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1.47</v>
       </c>
       <c r="O8">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -2245,19 +2206,19 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE8">
-        <v>11</v>
+        <v>86.39</v>
       </c>
       <c r="AF8">
         <v>86.39</v>
@@ -2269,7 +2230,7 @@
         <v>86.39</v>
       </c>
       <c r="AI8">
-        <v>86.39</v>
+        <v>100</v>
       </c>
       <c r="AJ8">
         <v>100</v>
@@ -2293,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="AQ8">
-        <v>100</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="AR8">
         <v>68.569999999999993</v>
@@ -2305,7 +2266,7 @@
         <v>68.569999999999993</v>
       </c>
       <c r="AU8">
-        <v>68.569999999999993</v>
+        <v>91.67</v>
       </c>
       <c r="AV8">
         <v>91.67</v>
@@ -2316,8 +2277,8 @@
       <c r="AX8">
         <v>91.67</v>
       </c>
-      <c r="AY8">
-        <v>91.67</v>
+      <c r="BC8">
+        <v>83.1</v>
       </c>
       <c r="BD8">
         <v>83.1</v>
@@ -2328,64 +2289,61 @@
       <c r="BF8">
         <v>83.1</v>
       </c>
-      <c r="BG8">
-        <v>83.1</v>
+      <c r="BG8" t="s">
+        <v>67</v>
       </c>
       <c r="BH8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="BI8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="BJ8" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10325</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="F9">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="G9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H9">
+        <v>2.6</v>
+      </c>
+      <c r="I9">
+        <v>2.44</v>
+      </c>
+      <c r="J9">
         <v>2.64</v>
       </c>
-      <c r="H9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="I9">
-        <v>2.6</v>
-      </c>
-      <c r="J9">
-        <v>2.44</v>
-      </c>
       <c r="K9">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="L9">
-        <v>2.48</v>
-      </c>
-      <c r="M9">
         <v>2.4900000000000002</v>
       </c>
+      <c r="N9">
+        <v>1.47</v>
+      </c>
       <c r="O9">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -2396,47 +2354,47 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
       </c>
       <c r="AB9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AD9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE9">
-        <v>12</v>
+        <v>84.95</v>
       </c>
       <c r="AF9">
         <v>84.95</v>
       </c>
       <c r="AG9">
-        <v>84.95</v>
+        <v>77.87</v>
       </c>
       <c r="AH9">
         <v>77.87</v>
       </c>
       <c r="AI9">
-        <v>77.87</v>
+        <v>100</v>
       </c>
       <c r="AJ9">
         <v>100</v>
       </c>
       <c r="AK9">
-        <v>100</v>
+        <v>41.67</v>
       </c>
       <c r="AL9">
         <v>41.67</v>
       </c>
       <c r="AM9">
-        <v>41.67</v>
+        <v>100</v>
       </c>
       <c r="AN9">
         <v>100</v>
@@ -2471,82 +2429,76 @@
       <c r="AX9">
         <v>100</v>
       </c>
-      <c r="AY9">
-        <v>100</v>
+      <c r="BC9">
+        <v>94.58</v>
       </c>
       <c r="BD9">
         <v>94.58</v>
       </c>
       <c r="BE9">
-        <v>94.58</v>
+        <v>85.03</v>
       </c>
       <c r="BF9">
         <v>85.03</v>
       </c>
-      <c r="BG9">
-        <v>85.03</v>
+      <c r="BG9" t="s">
+        <v>65</v>
       </c>
       <c r="BH9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BI9" t="s">
         <v>67</v>
       </c>
       <c r="BJ9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
       </c>
-      <c r="AY10">
+      <c r="BE10">
         <v>0</v>
       </c>
       <c r="BF10">
         <v>0</v>
       </c>
-      <c r="BG10">
-        <v>0</v>
+      <c r="BI10" t="s">
+        <v>68</v>
       </c>
       <c r="BJ10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/ACAT/grades/FA24/COMP-101_FA24_01_course_data.xlsx
+++ b/src/ACAT/grades/FA24/COMP-101_FA24_01_course_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jglossner\GitRivier\Assessment\src\ACAT\grades\FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E212853-CC40-4BDF-BAF2-B8F61DF27AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5953768E-BC3A-47B5-AEA1-C8079FF25B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="4335" windowWidth="21600" windowHeight="11025" xr2:uid="{3833C598-C2F8-49E4-AD33-D16D6B8DFCA6}"/>
+    <workbookView xWindow="480" yWindow="4335" windowWidth="21645" windowHeight="11025" xr2:uid="{054E22F7-75FD-4511-9B2F-9D2D4F7760FC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMP-101_FA24_01_course_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>SIS User ID</t>
   </si>
@@ -206,12 +206,6 @@
   </si>
   <si>
     <t>Unposted Final Grade</t>
-  </si>
-  <si>
-    <t>Manual Posting</t>
-  </si>
-  <si>
-    <t>(read only)</t>
   </si>
   <si>
     <t>FA24 - COMP-101-A - CODING ADVENTURES I</t>
@@ -1086,12 +1080,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BA2EC5-7C9D-4E3C-952F-7434FAB7E38F}">
-  <dimension ref="A1:BJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C210D01D-C797-43A6-9753-5A427F7CDB55}">
+  <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1284,52 +1276,172 @@
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="AB2" t="s">
+      <c r="A2">
+        <v>62705</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>62</v>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2.89</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>11</v>
+      </c>
+      <c r="AC2">
+        <v>25</v>
+      </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <v>98.8</v>
+      </c>
+      <c r="AF2">
+        <v>98.8</v>
+      </c>
+      <c r="AG2">
+        <v>24.7</v>
+      </c>
+      <c r="AH2">
+        <v>24.7</v>
+      </c>
+      <c r="AI2">
+        <v>50</v>
+      </c>
+      <c r="AJ2">
+        <v>50</v>
+      </c>
+      <c r="AK2">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AL2">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AM2">
+        <v>100</v>
+      </c>
+      <c r="AN2">
+        <v>100</v>
+      </c>
+      <c r="AO2">
+        <v>100</v>
+      </c>
+      <c r="AP2">
+        <v>100</v>
+      </c>
+      <c r="AQ2">
+        <v>102.86</v>
+      </c>
+      <c r="AR2">
+        <v>102.86</v>
+      </c>
+      <c r="AS2">
+        <v>102.86</v>
+      </c>
+      <c r="AT2">
+        <v>102.86</v>
+      </c>
+      <c r="AU2">
+        <v>100</v>
+      </c>
+      <c r="AV2">
+        <v>100</v>
+      </c>
+      <c r="AW2">
+        <v>100</v>
+      </c>
+      <c r="AX2">
+        <v>100</v>
+      </c>
+      <c r="BC2">
+        <v>94.57</v>
+      </c>
+      <c r="BD2">
+        <v>94.57</v>
+      </c>
+      <c r="BE2">
+        <v>63.89</v>
+      </c>
+      <c r="BF2">
+        <v>63.89</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62523</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0.18</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1379,89 +1491,77 @@
       <c r="AD3">
         <v>12</v>
       </c>
-      <c r="AE3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>63</v>
+      <c r="AE3">
+        <v>90.59</v>
+      </c>
+      <c r="AF3">
+        <v>90.59</v>
+      </c>
+      <c r="AG3">
+        <v>90.59</v>
+      </c>
+      <c r="AH3">
+        <v>90.59</v>
+      </c>
+      <c r="AI3">
+        <v>100</v>
+      </c>
+      <c r="AJ3">
+        <v>100</v>
+      </c>
+      <c r="AK3">
+        <v>100</v>
+      </c>
+      <c r="AL3">
+        <v>100</v>
+      </c>
+      <c r="AM3">
+        <v>100</v>
+      </c>
+      <c r="AN3">
+        <v>100</v>
+      </c>
+      <c r="AO3">
+        <v>100</v>
+      </c>
+      <c r="AP3">
+        <v>100</v>
+      </c>
+      <c r="AQ3">
+        <v>100</v>
+      </c>
+      <c r="AR3">
+        <v>100</v>
+      </c>
+      <c r="AS3">
+        <v>100</v>
+      </c>
+      <c r="AT3">
+        <v>100</v>
+      </c>
+      <c r="AU3">
+        <v>100</v>
+      </c>
+      <c r="AV3">
+        <v>100</v>
+      </c>
+      <c r="AW3">
+        <v>100</v>
+      </c>
+      <c r="AX3">
+        <v>100</v>
+      </c>
+      <c r="BC3">
+        <v>96.61</v>
+      </c>
+      <c r="BD3">
+        <v>96.61</v>
+      </c>
+      <c r="BE3">
+        <v>96.61</v>
+      </c>
+      <c r="BF3">
+        <v>96.61</v>
       </c>
       <c r="BG3" t="s">
         <v>63</v>
@@ -1478,10 +1578,10 @@
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>62705</v>
+        <v>62159</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1490,25 +1590,73 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2.89</v>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2.97</v>
+      </c>
+      <c r="L4">
+        <v>2.71</v>
+      </c>
+      <c r="N4">
+        <v>2.87</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
         <v>5</v>
       </c>
       <c r="AB4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC4">
         <v>25</v>
@@ -1517,28 +1665,28 @@
         <v>12</v>
       </c>
       <c r="AE4">
-        <v>98.8</v>
+        <v>98.62</v>
       </c>
       <c r="AF4">
-        <v>98.8</v>
+        <v>98.62</v>
       </c>
       <c r="AG4">
-        <v>24.7</v>
+        <v>90.4</v>
       </c>
       <c r="AH4">
-        <v>24.7</v>
+        <v>90.4</v>
       </c>
       <c r="AI4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AJ4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AK4">
-        <v>16.670000000000002</v>
+        <v>100</v>
       </c>
       <c r="AL4">
-        <v>16.670000000000002</v>
+        <v>100</v>
       </c>
       <c r="AM4">
         <v>100</v>
@@ -1553,16 +1701,16 @@
         <v>100</v>
       </c>
       <c r="AQ4">
-        <v>102.86</v>
+        <v>100</v>
       </c>
       <c r="AR4">
-        <v>102.86</v>
+        <v>100</v>
       </c>
       <c r="AS4">
-        <v>102.86</v>
+        <v>100</v>
       </c>
       <c r="AT4">
-        <v>102.86</v>
+        <v>100</v>
       </c>
       <c r="AU4">
         <v>100</v>
@@ -1577,72 +1725,72 @@
         <v>100</v>
       </c>
       <c r="BC4">
-        <v>94.57</v>
+        <v>99.5</v>
       </c>
       <c r="BD4">
-        <v>94.57</v>
+        <v>99.5</v>
       </c>
       <c r="BE4">
-        <v>63.89</v>
+        <v>96.55</v>
       </c>
       <c r="BF4">
-        <v>63.89</v>
+        <v>96.55</v>
       </c>
       <c r="BG4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BH4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BI4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BJ4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>62523</v>
+        <v>8756</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="H5">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="L5">
         <v>2.89</v>
       </c>
       <c r="M5">
-        <v>0.18</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>2.87</v>
+        <v>2.73</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1693,16 +1841,16 @@
         <v>12</v>
       </c>
       <c r="AE5">
-        <v>90.59</v>
+        <v>98.16</v>
       </c>
       <c r="AF5">
-        <v>90.59</v>
+        <v>98.16</v>
       </c>
       <c r="AG5">
-        <v>90.59</v>
+        <v>98.16</v>
       </c>
       <c r="AH5">
-        <v>90.59</v>
+        <v>98.16</v>
       </c>
       <c r="AI5">
         <v>100</v>
@@ -1753,36 +1901,36 @@
         <v>100</v>
       </c>
       <c r="BC5">
-        <v>96.61</v>
+        <v>99.34</v>
       </c>
       <c r="BD5">
-        <v>96.61</v>
+        <v>99.34</v>
       </c>
       <c r="BE5">
-        <v>96.61</v>
+        <v>99.34</v>
       </c>
       <c r="BF5">
-        <v>96.61</v>
+        <v>99.34</v>
       </c>
       <c r="BG5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BH5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BI5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BJ5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>62159</v>
+        <v>63439</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1791,31 +1939,34 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2.41</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="K6">
-        <v>2.97</v>
+        <v>2.52</v>
       </c>
       <c r="L6">
-        <v>2.71</v>
+        <v>2.46</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2.87</v>
+        <v>1.47</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1857,25 +2008,25 @@
         <v>5</v>
       </c>
       <c r="AB6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AD6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE6">
-        <v>98.62</v>
+        <v>86.39</v>
       </c>
       <c r="AF6">
-        <v>98.62</v>
+        <v>86.39</v>
       </c>
       <c r="AG6">
-        <v>90.4</v>
+        <v>86.39</v>
       </c>
       <c r="AH6">
-        <v>90.4</v>
+        <v>86.39</v>
       </c>
       <c r="AI6">
         <v>100</v>
@@ -1902,40 +2053,40 @@
         <v>100</v>
       </c>
       <c r="AQ6">
-        <v>100</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="AR6">
-        <v>100</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="AS6">
-        <v>100</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="AT6">
-        <v>100</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="AU6">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="AV6">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="AW6">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="AX6">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="BC6">
-        <v>99.5</v>
+        <v>83.1</v>
       </c>
       <c r="BD6">
-        <v>99.5</v>
+        <v>83.1</v>
       </c>
       <c r="BE6">
-        <v>96.55</v>
+        <v>83.1</v>
       </c>
       <c r="BF6">
-        <v>96.55</v>
+        <v>83.1</v>
       </c>
       <c r="BG6" t="s">
         <v>65</v>
@@ -1952,10 +2103,10 @@
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8756</v>
+        <v>10325</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1964,34 +2115,31 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="G7">
-        <v>2.84</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="K7">
-        <v>2.87</v>
+        <v>2.48</v>
       </c>
       <c r="L7">
-        <v>2.89</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="N7">
-        <v>2.73</v>
+        <v>1.47</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2005,28 +2153,7 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
       <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
@@ -2042,16 +2169,16 @@
         <v>12</v>
       </c>
       <c r="AE7">
-        <v>98.16</v>
+        <v>84.95</v>
       </c>
       <c r="AF7">
-        <v>98.16</v>
+        <v>84.95</v>
       </c>
       <c r="AG7">
-        <v>98.16</v>
+        <v>77.87</v>
       </c>
       <c r="AH7">
-        <v>98.16</v>
+        <v>77.87</v>
       </c>
       <c r="AI7">
         <v>100</v>
@@ -2060,10 +2187,10 @@
         <v>100</v>
       </c>
       <c r="AK7">
-        <v>100</v>
+        <v>41.67</v>
       </c>
       <c r="AL7">
-        <v>100</v>
+        <v>41.67</v>
       </c>
       <c r="AM7">
         <v>100</v>
@@ -2102,22 +2229,22 @@
         <v>100</v>
       </c>
       <c r="BC7">
-        <v>99.34</v>
+        <v>94.58</v>
       </c>
       <c r="BD7">
-        <v>99.34</v>
+        <v>94.58</v>
       </c>
       <c r="BE7">
-        <v>99.34</v>
+        <v>85.03</v>
       </c>
       <c r="BF7">
-        <v>99.34</v>
+        <v>85.03</v>
       </c>
       <c r="BG7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BH7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BI7" t="s">
         <v>65</v>
@@ -2127,378 +2254,50 @@
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>63439</v>
-      </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2.95</v>
-      </c>
-      <c r="F8">
-        <v>2.68</v>
-      </c>
-      <c r="G8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H8">
-        <v>2.56</v>
-      </c>
-      <c r="I8">
-        <v>2.41</v>
-      </c>
-      <c r="J8">
-        <v>2.64</v>
-      </c>
-      <c r="K8">
-        <v>2.52</v>
-      </c>
-      <c r="L8">
-        <v>2.46</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>1.47</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>9</v>
-      </c>
-      <c r="AC8">
-        <v>15</v>
-      </c>
-      <c r="AD8">
-        <v>11</v>
-      </c>
-      <c r="AE8">
-        <v>86.39</v>
-      </c>
-      <c r="AF8">
-        <v>86.39</v>
+        <v>62</v>
       </c>
       <c r="AG8">
-        <v>86.39</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>86.39</v>
-      </c>
-      <c r="AI8">
-        <v>100</v>
-      </c>
-      <c r="AJ8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>100</v>
-      </c>
-      <c r="AM8">
-        <v>100</v>
-      </c>
-      <c r="AN8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>100</v>
-      </c>
-      <c r="AQ8">
-        <v>68.569999999999993</v>
-      </c>
-      <c r="AR8">
-        <v>68.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>68.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>68.569999999999993</v>
-      </c>
-      <c r="AU8">
-        <v>91.67</v>
-      </c>
-      <c r="AV8">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="AX8">
-        <v>91.67</v>
-      </c>
-      <c r="BC8">
-        <v>83.1</v>
-      </c>
-      <c r="BD8">
-        <v>83.1</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>83.1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>83.1</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BJ8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10325</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2.84</v>
-      </c>
-      <c r="F9">
-        <v>2.64</v>
-      </c>
-      <c r="G9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H9">
-        <v>2.6</v>
-      </c>
-      <c r="I9">
-        <v>2.44</v>
-      </c>
-      <c r="J9">
-        <v>2.64</v>
-      </c>
-      <c r="K9">
-        <v>2.48</v>
-      </c>
-      <c r="L9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="N9">
-        <v>1.47</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>5</v>
-      </c>
-      <c r="AB9">
-        <v>10</v>
-      </c>
-      <c r="AC9">
-        <v>25</v>
-      </c>
-      <c r="AD9">
-        <v>12</v>
-      </c>
-      <c r="AE9">
-        <v>84.95</v>
-      </c>
-      <c r="AF9">
-        <v>84.95</v>
-      </c>
-      <c r="AG9">
-        <v>77.87</v>
-      </c>
-      <c r="AH9">
-        <v>77.87</v>
-      </c>
-      <c r="AI9">
-        <v>100</v>
-      </c>
-      <c r="AJ9">
-        <v>100</v>
-      </c>
-      <c r="AK9">
-        <v>41.67</v>
-      </c>
-      <c r="AL9">
-        <v>41.67</v>
-      </c>
-      <c r="AM9">
-        <v>100</v>
-      </c>
-      <c r="AN9">
-        <v>100</v>
-      </c>
-      <c r="AO9">
-        <v>100</v>
-      </c>
-      <c r="AP9">
-        <v>100</v>
-      </c>
-      <c r="AQ9">
-        <v>100</v>
-      </c>
-      <c r="AR9">
-        <v>100</v>
-      </c>
-      <c r="AS9">
-        <v>100</v>
-      </c>
-      <c r="AT9">
-        <v>100</v>
-      </c>
-      <c r="AU9">
-        <v>100</v>
-      </c>
-      <c r="AV9">
-        <v>100</v>
-      </c>
-      <c r="AW9">
-        <v>100</v>
-      </c>
-      <c r="AX9">
-        <v>100</v>
-      </c>
-      <c r="BC9">
-        <v>94.58</v>
-      </c>
-      <c r="BD9">
-        <v>94.58</v>
-      </c>
-      <c r="BE9">
-        <v>85.03</v>
-      </c>
-      <c r="BF9">
-        <v>85.03</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/ACAT/grades/FA24/COMP-101_FA24_01_course_data.xlsx
+++ b/src/ACAT/grades/FA24/COMP-101_FA24_01_course_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siric\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Raghava_Master's\Professional Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FBB9B-199B-41EE-93A1-71181AB7496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9767C-523E-4B27-A328-0B76615F28F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2C41E5BC-1DA1-48A2-BE0D-00875B461B44}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{2C41E5BC-1DA1-48A2-BE0D-00875B461B44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t xml:space="preserve"> Apply Problem-Solving</t>
   </si>
@@ -45,20 +45,23 @@
     <t xml:space="preserve"> Test and Debug</t>
   </si>
   <si>
+    <t xml:space="preserve"> Final Exam</t>
+  </si>
+  <si>
     <t>SIS User ID</t>
   </si>
   <si>
-    <t>Exams Final Score</t>
+    <t>Projects Final Score</t>
   </si>
   <si>
-    <t>Projects Final Score</t>
+    <t>Exams Final Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +89,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +129,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,28 +445,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CCB1BA-52E2-4870-927B-7E4F574FFA77}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.53125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -468,10 +479,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>11</v>
       </c>
@@ -487,11 +501,14 @@
       <c r="E2">
         <v>66</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>12</v>
       </c>
@@ -507,11 +524,14 @@
       <c r="E3">
         <v>59</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>13</v>
       </c>
@@ -527,11 +547,14 @@
       <c r="E4">
         <v>88</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>14</v>
       </c>
@@ -547,11 +570,14 @@
       <c r="E5">
         <v>45</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
+        <v>78</v>
+      </c>
+      <c r="G5" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -567,152 +593,193 @@
       <c r="E6">
         <v>33</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
